--- a/CoronatwitterSentimentalsv2.xlsx
+++ b/CoronatwitterSentimentalsv2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="279">
   <si>
     <t>texts</t>
   </si>
@@ -28,39 +28,143 @@
     <t>id</t>
   </si>
   <si>
-    <t xml:space="preserve"> No, gandu...in corona most of billionaire increased their wealth, speedly , watch musk and Bezos .. पप्पुपेलू 🐖🐷🐷</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PM at midnight
-No time of death
-No Corona test of body
-No videography of PM
-Loopholes in autopsy
-Viscera was not reser…</t>
+    <t xml:space="preserve"> Please I did not die!!! I survived Covid. It’s real!! Let’s take good care of ourselves and be careful the info we are…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You can also try it out here. Classic fights against Krasse #BEATS (#beatsforsale / #BeatStars / #classic) : 
+Listen to it…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUSE - Algorithm [Official Music Video]  via  Aktuell wie eh und je: "This is war wi… </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GNews Telugu is 24*7 youtube channel covering breaking news, latest news, interviews, politics, sports, entertainme… </t>
   </si>
   <si>
     <t xml:space="preserve"> DAILY SNAPSHOT: Total Cases crossed the 1.95 million mark at 7:00 pm with over 19,100 cases reported across the region si…</t>
   </si>
   <si>
-    <t xml:space="preserve"> When corona over, WINNER at WATERBOMB festival 💙💙💙💙
-위너 #WINNER  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> dad lost smell from corona so i can finally smoke in the house </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sir i wanna know that is corona only dangerous for central school students 😂😂😂😂 #Reopen_navodaya #jnv
- …</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Some African countries are complaining that the rich countries are hoarding Corona Vaccines. Isn’t it time for Africans to s…</t>
+    <t xml:space="preserve">This is an unprecedented crisis. Probably the most important after war II.
+#corona #crisis #pandemic #staysafe… </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Have you read our follow-up working from home survey? It looks like remote working is here to stay. #remoteworking… </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #Corona death toll down to a 4th or 5th of what it was
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can also try it out here. Classic fights against Krasse #BEATS (#beatsforsale / #BeatStars / #classic) : 
+Liste… </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> How #coronavirus variants may pose challenges for #COVID19 #vaccine
+#Researc…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How #coronavirus variants may pose challenges for #COVID19 #vaccine
+… </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #COVID19  #coronavirus variant less likely to report losing taste, smell
+#Re…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#COVID19  #coronavirus variant less likely to report losing taste, smell
+… </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spread the word: info on #corona virus in 13 languages , including recent #curfew in the #Netherlands </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #Moderna #vaccine appears to work against variants
+#Research #vaccinat…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Moderna #vaccine appears to work against variants
+#Research… </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Indian conglomerate Tata Sons is in discussion with Moderna Inc for a partnership with its health unit Tata Med… </t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Advice Given By WHO For Treating COVID-19 Patients 
+#coronaVaccine #corona #WHO #Advice #IHT #IndiaHotTopics </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010 Rockefeller Operation Lockstep foretold 2020 lockdown
+...
+#lockdown #corona #freedom </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keep a record.
+Jan 8 - Jan 27 2021.
+#記録 #record #keeparecord #covid_19 #corona #coronavirus 
+#sarscov2 #pandemic… </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #COVID19 :treatment claims to stop 100% of symptomatic infections
+#Res…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#COVID19 :treatment claims to stop 100% of symptomatic infections
+… </t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Somizi #eucalyptusoil #corona #steam #covid-19
+Second week of the steaming drive.
+Get your eucalyptus oil at R55… </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Countdown! 𝗧𝘄𝗼 𝗱𝗮𝘆𝘀 until the series production of the #VWID3 starts in #Dresden. Despite #Corona, we are currently de…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #goodmorning my #friends 
+there is only one you-everyone of us is precious and perfect in every way-believe this of your…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Corona Info for #Nepal:
+New Cases: 283
+Today Recovery: 246
+Today Deaths: 3
+Total Active Cases: 3286
+Total Cases: 2… </t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Corona Info for #Germany:
+New Cases: 737
+Today Recovery: 22000
+Today Deaths: 106
+Total Active Cases: 244309
+Total… </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Countdown! 𝗧𝘄𝗼 𝗱𝗮𝘆𝘀 until the series production of the #VWID3 starts in #Dresden. Despite #Corona, we are currently… </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corona Update: With 137 Fresh COVID-19 Fatalities, 13,320 Recoveries In Last 24 Hours
+#CoronaUpdate #corona… </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Some #ThursdayMotivation with weird and wonderful #Pharma facts to lighten our mood during #COVID19  times! Access them eas…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Finally!!! 
+Officially #Corona is over in #Mumbai
+Western Railway to run its FULL local services from Friday
+Dear …</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Famous National Dish Around The World
+#foodie #homecooking #Chef #food #Celebrity_D1 #Beijing #delicious… </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A perfect example of what is not moral leadership ; big pharma are only in it for shareholder value... moral leader… </t>
   </si>
   <si>
     <t xml:space="preserve"> Kindly contact the following for assistance:
 ▪️ DD PRO, #Jaisalmer, Phone: 02992-252377, Email: dipr.jaisalmer…</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Great News: Bharat Biotech's Covaxin Corona Vaccine Effective Against coronavirus Variant Discovered In UK: ICMR Study</t>
   </si>
   <si>
     <t xml:space="preserve"> How to Reverse the Increasing Divorce Rate 
@@ -68,9 +172,147 @@
 #tuesday…</t>
   </si>
   <si>
-    <t xml:space="preserve"> Details of scheduled flight movement at Jamnagar Airport on 27 /01/2021
-No. of Arrival Flt:01
-No. of Departure Flt:01…</t>
+    <t xml:space="preserve"> If you can't fight it get used to it! No to: #ZeroCovid #ZeroCovidEurope But yes to: #EndemicCovid There is no other cha…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #Swiss journalist M.Ackeret gets vaccinated against #Corona with the #Russian #SputnikV in Moscow. Despite all propaganda.…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Computer, play some high frequency resonances, the mating sound of bats" or all 9 Solfreggio Frequencies
+And virus… </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The list of f.y.g.b studios #games is slowly growing:
+#HauntedNightmares is #soon on #STEAM !
+(#Steamkeys / #Steamkey)
+#Sta…</t>
+  </si>
+  <si>
+    <t>The latest Entwicklungspolitische Themen!  Thanks to    #merkel #corona</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #SaveTheDate ! 
+#HauntedNightmares is #soon on #STEAM !
+#StayAtHome because of #Corona with #SteamDeals!
+#lockdown2021 and…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Our death rate from #Corona is the worst in the entire world. Just think about that... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">#SaveTheDate ! 
+#HauntedNightmares is #soon on #STEAM !
+#StayAtHome because of #Corona with #SteamDeals!… </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> He wasn’t that sad a few days ago. It would be constant, surely?
+#100kDeaths #COVID19 #coronavirusuk #Corona #lockdown #ToryCovid…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> With our Q-TILE-PRO plugin you can create textures and surfaces in scan texture quality level, but without visible repetit…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This week we have interviewed Research Assistant for New Zealand, Vanessa Cheng. Thank you Vanessa for your hard work an…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peak Coronatest… 😲#corona #abstrich #coronatest #unangenehm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kindly contact the following for assistance:
+▪️ DD PRO, #Jaisalmer, Phone: 02992-252377, Email: dipr.jaisalmer… </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The list of f.y.g.b studios #games is slowly growing:
+#HauntedNightmares is #soon on #STEAM !
+(#Steamkeys /… </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It’s okay to not feel okay during these times. We’ve come so far and as said in a previous post... we’re one day cl… </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The population of the UK is rising - so the total of deaths (pro-rata) in 2020 in the UK was lower than in 2018 and 2019:…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Covid-19 vaccines are safe and have passed through various trials. The vaccines would play a critical role in India's fight…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covid-19 vaccines are safe and have passed through various trials. The vaccines would play a critical role in India… </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Autumn  PERSONAL TRAINING! 🎬🍂
+#Filmmaking #movie #Karate #sport #fitnesstrainer #JuergenMayer #personaltrainer #nature #Y…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Global Peace Index:
+Amsterdam is one of the most peaceful and secure cities of the world.
+Reality:
+As long as the citi…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #MoodOfTheNation | Almost three-fourths of Indians believe that PM Modi has done a good or outstanding job in handling the…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Corona death toll down to a 4th or 5th of what it was
+</t>
+  </si>
+  <si>
+    <t>#ChoosetoVaccinate because vaccination gives a person immunity and reduces the risk of infection with #Corona 👌🇦🇪
+#TogetherWeRecover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visit Our Website For More Info: 
+Call Us at - (337-354-2350)
+#alcoholhandsanitizer… </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Trust the British🇬🇧 moles to find 
+#AapdaMeinAvsar 
+Lakhs of #Farmers Assembled &amp;amp; Dispersed Peacefully in…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #Corona currently dominates our lives. But let us not forget those who are exposed to anti-Semitic agitation, especially…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UFOs being Spotted by PIA pilots in Karachi. Finally! Aliens have lost their brains and have started taking us seri… </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Trust the British🇬🇧 moles to find 
+#AapdaMeinAvsar 
+Lakhs of #Farmers Assembled &amp;amp; Dispersed Peacefull… </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> COVID UPDATE:
+Coronavirus vaccination drive to kick off in India on Jan 16.
+#Corona #COVIDUpdate #CoronaVirus #Coron…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">With our Q-TILE-PRO plugin you can create textures and surfaces in scan texture quality level, but without visible… </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9.-10. February 2021 ➡️ online! 📲 "#Coronaviruses in #Wastewater: Monitoring of SARS-CoV-2 in the sewage system". Discu…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #RepublicDay celebrated with great zeal and fervour in Jharkhand. Governor Draupadi Murmu unfurled the national flag in…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">God told my sister that corona treatment will come from people's blood. And told me that no blood clots treatment s… </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Know the eligibility criteria for COVID-19 #vaccination &amp;amp; get yourself vaccinated.
+Let’s win this fight against #coron…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Todaya a Steam (#Steamkey or #Steamkeys) #givaway Wednesday  for #final_m00n - Defender of the Cubes.
+20 #free final m00n -…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our 40 year old Kalvinator refrigerator is a CORONA model fridge, suddenly saw Corona written on it Today morning🤣… </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The population of the UK is rising - so the total of deaths (pro-rata) in 2020 in the UK was lower than in 2018 and… </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAILY SNAPSHOT: Total Cases crossed the 1.95 million mark at 7:00 pm with over 19,100 cases reported across the reg… </t>
   </si>
   <si>
     <t>positive</t>
@@ -82,85 +324,601 @@
     <t>neutral</t>
   </si>
   <si>
-    <t>Wed Jan 27 12:04:34 +0000 2021</t>
+    <t>Wed Jan 27 12:26:07 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 12:25:03 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 12:23:56 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 12:23:54 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 12:23:31 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 12:22:40 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 12:22:24 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 12:21:20 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 12:21:02 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 12:20:08 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 12:19:05 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 12:18:59 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 12:17:26 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 12:17:20 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 12:17:18 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 12:17:12 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 12:14:46 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 12:14:03 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 12:13:57 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 12:13:48 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 12:13:45 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 12:12:35 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 12:12:10 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 12:11:04 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 12:10:58 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 12:10:38 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 12:09:27 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 12:08:39 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 12:08:27 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 12:08:18 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 12:08:17 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 12:07:36 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 12:06:32 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 12:06:22 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 12:06:11 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 12:05:27 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 12:05:24 +0000 2021</t>
   </si>
   <si>
     <t>Wed Jan 27 12:04:33 +0000 2021</t>
   </si>
   <si>
-    <t>Wed Jan 27 12:04:31 +0000 2021</t>
-  </si>
-  <si>
-    <t>Wed Jan 27 12:04:27 +0000 2021</t>
-  </si>
-  <si>
-    <t>Wed Jan 27 12:04:25 +0000 2021</t>
-  </si>
-  <si>
-    <t>Wed Jan 27 12:04:24 +0000 2021</t>
-  </si>
-  <si>
-    <t>Wed Jan 27 12:04:21 +0000 2021</t>
-  </si>
-  <si>
-    <t>Wed Jan 27 12:04:20 +0000 2021</t>
-  </si>
-  <si>
     <t>Wed Jan 27 12:04:18 +0000 2021</t>
   </si>
   <si>
     <t>Wed Jan 27 12:04:17 +0000 2021</t>
   </si>
   <si>
-    <t>Wed Jan 27 12:04:16 +0000 2021</t>
-  </si>
-  <si>
-    <t>Wed Jan 27 12:04:15 +0000 2021</t>
-  </si>
-  <si>
-    <t>1354399900209868806</t>
-  </si>
-  <si>
-    <t>1354399896678191106</t>
+    <t>Wed Jan 27 12:04:09 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 12:03:09 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 12:02:10 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 11:59:53 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 11:59:26 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 11:58:49 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 11:57:31 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 11:56:42 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 11:56:22 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 11:55:30 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 11:55:20 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 11:51:28 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 11:48:13 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 11:48:04 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 11:47:32 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 11:46:19 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 11:45:42 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 11:45:03 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 11:45:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 11:44:49 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 11:43:02 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 11:42:51 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 11:40:37 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 11:39:12 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 11:38:54 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 11:35:19 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 11:34:52 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 11:34:31 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 11:34:15 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 11:33:07 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 11:30:35 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 11:30:02 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 11:28:44 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 11:26:59 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 11:26:45 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 11:26:35 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 11:26:29 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 11:26:12 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 11:25:21 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 11:24:42 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 11:24:02 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 11:23:50 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 11:22:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 11:21:43 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 11:21:25 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 11:21:07 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 11:19:52 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 11:18:32 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 11:18:23 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 11:18:20 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 11:17:36 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 11:16:50 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 11:16:47 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 11:16:31 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 11:16:16 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 11:15:02 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 11:14:28 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 11:13:51 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 11:12:46 +0000 2021</t>
+  </si>
+  <si>
+    <t>1354405323017232386</t>
+  </si>
+  <si>
+    <t>1354405053801574403</t>
+  </si>
+  <si>
+    <t>1354404773395652608</t>
+  </si>
+  <si>
+    <t>1354404767246675972</t>
+  </si>
+  <si>
+    <t>1354404669930409984</t>
+  </si>
+  <si>
+    <t>1354404454980841474</t>
+  </si>
+  <si>
+    <t>1354404388081721344</t>
+  </si>
+  <si>
+    <t>1354404119423852544</t>
+  </si>
+  <si>
+    <t>1354404045222514688</t>
+  </si>
+  <si>
+    <t>1354403820068073472</t>
+  </si>
+  <si>
+    <t>1354403553570394115</t>
+  </si>
+  <si>
+    <t>1354403528106594304</t>
+  </si>
+  <si>
+    <t>1354403139277959168</t>
+  </si>
+  <si>
+    <t>1354403113726136321</t>
+  </si>
+  <si>
+    <t>1354403106046570498</t>
+  </si>
+  <si>
+    <t>1354403081153351680</t>
+  </si>
+  <si>
+    <t>1354402467547504645</t>
+  </si>
+  <si>
+    <t>1354402288933216258</t>
+  </si>
+  <si>
+    <t>1354402263129702401</t>
+  </si>
+  <si>
+    <t>1354402224823283713</t>
+  </si>
+  <si>
+    <t>1354402212177354759</t>
+  </si>
+  <si>
+    <t>1354401919805104128</t>
+  </si>
+  <si>
+    <t>1354401813600980996</t>
+  </si>
+  <si>
+    <t>1354401538274439170</t>
+  </si>
+  <si>
+    <t>1354401511707602944</t>
+  </si>
+  <si>
+    <t>1354401428983439362</t>
+  </si>
+  <si>
+    <t>1354401130781011969</t>
+  </si>
+  <si>
+    <t>1354400927772360705</t>
+  </si>
+  <si>
+    <t>1354400877533143041</t>
+  </si>
+  <si>
+    <t>1354400840803610625</t>
+  </si>
+  <si>
+    <t>1354400837775351808</t>
+  </si>
+  <si>
+    <t>1354400662541496322</t>
+  </si>
+  <si>
+    <t>1354400396362485767</t>
+  </si>
+  <si>
+    <t>1354400351974256643</t>
+  </si>
+  <si>
+    <t>1354400306138759170</t>
+  </si>
+  <si>
+    <t>1354400123082563589</t>
+  </si>
+  <si>
+    <t>1354400109522464770</t>
   </si>
   <si>
     <t>1354399894396489728</t>
   </si>
   <si>
-    <t>1354399886205095936</t>
-  </si>
-  <si>
-    <t>1354399872292683777</t>
-  </si>
-  <si>
-    <t>1354399862482030593</t>
-  </si>
-  <si>
-    <t>1354399859269369857</t>
-  </si>
-  <si>
-    <t>1354399856937340929</t>
-  </si>
-  <si>
-    <t>1354399847110103040</t>
-  </si>
-  <si>
-    <t>1354399840122245120</t>
-  </si>
-  <si>
     <t>1354399833205977095</t>
   </si>
   <si>
-    <t>1354399829036736512</t>
-  </si>
-  <si>
     <t>1354399828965535746</t>
   </si>
   <si>
-    <t>1354399826578976769</t>
-  </si>
-  <si>
-    <t>1354399820639735810</t>
+    <t>1354399796556156929</t>
+  </si>
+  <si>
+    <t>1354399542565871618</t>
+  </si>
+  <si>
+    <t>1354399297610113024</t>
+  </si>
+  <si>
+    <t>1354398721862201347</t>
+  </si>
+  <si>
+    <t>1354398609823948802</t>
+  </si>
+  <si>
+    <t>1354398452021653504</t>
+  </si>
+  <si>
+    <t>1354398128116555779</t>
+  </si>
+  <si>
+    <t>1354397922675273734</t>
+  </si>
+  <si>
+    <t>1354397838646538240</t>
+  </si>
+  <si>
+    <t>1354397620840484867</t>
+  </si>
+  <si>
+    <t>1354397576594911232</t>
+  </si>
+  <si>
+    <t>1354396602807402497</t>
+  </si>
+  <si>
+    <t>1354395784666632194</t>
+  </si>
+  <si>
+    <t>1354395750105567239</t>
+  </si>
+  <si>
+    <t>1354395612888752128</t>
+  </si>
+  <si>
+    <t>1354395306113314820</t>
+  </si>
+  <si>
+    <t>1354395154208141315</t>
+  </si>
+  <si>
+    <t>1354394988856152065</t>
+  </si>
+  <si>
+    <t>1354394975509700614</t>
+  </si>
+  <si>
+    <t>1354394931276742657</t>
+  </si>
+  <si>
+    <t>1354394481945141248</t>
+  </si>
+  <si>
+    <t>1354394437313556485</t>
+  </si>
+  <si>
+    <t>1354393875348127745</t>
+  </si>
+  <si>
+    <t>1354393517146206208</t>
+  </si>
+  <si>
+    <t>1354393442525138947</t>
+  </si>
+  <si>
+    <t>1354392538182897665</t>
+  </si>
+  <si>
+    <t>1354392428250161158</t>
+  </si>
+  <si>
+    <t>1354392338081198080</t>
+  </si>
+  <si>
+    <t>1354392273195331584</t>
+  </si>
+  <si>
+    <t>1354391986648850434</t>
+  </si>
+  <si>
+    <t>1354391346640019457</t>
+  </si>
+  <si>
+    <t>1354391208315953157</t>
+  </si>
+  <si>
+    <t>1354390881747558403</t>
+  </si>
+  <si>
+    <t>1354390443878973441</t>
+  </si>
+  <si>
+    <t>1354390382856052738</t>
+  </si>
+  <si>
+    <t>1354390342024327168</t>
+  </si>
+  <si>
+    <t>1354390318494449666</t>
+  </si>
+  <si>
+    <t>1354390243802144774</t>
+  </si>
+  <si>
+    <t>1354390031427768320</t>
+  </si>
+  <si>
+    <t>1354389866243444743</t>
+  </si>
+  <si>
+    <t>1354389702070165504</t>
+  </si>
+  <si>
+    <t>1354389651092549633</t>
+  </si>
+  <si>
+    <t>1354389188779667458</t>
+  </si>
+  <si>
+    <t>1354389117644251139</t>
+  </si>
+  <si>
+    <t>1354389041739821061</t>
+  </si>
+  <si>
+    <t>1354388966011625479</t>
+  </si>
+  <si>
+    <t>1354388964287852547</t>
+  </si>
+  <si>
+    <t>1354388651451453442</t>
+  </si>
+  <si>
+    <t>1354388315118530561</t>
+  </si>
+  <si>
+    <t>1354388277957160960</t>
+  </si>
+  <si>
+    <t>1354388267127345153</t>
+  </si>
+  <si>
+    <t>1354388082485817345</t>
+  </si>
+  <si>
+    <t>1354387887710556165</t>
+  </si>
+  <si>
+    <t>1354387876075606017</t>
+  </si>
+  <si>
+    <t>1354387809532932098</t>
+  </si>
+  <si>
+    <t>1354387745871978497</t>
+  </si>
+  <si>
+    <t>1354387436525256704</t>
+  </si>
+  <si>
+    <t>1354387290752073730</t>
+  </si>
+  <si>
+    <t>1354387135474900992</t>
+  </si>
+  <si>
+    <t>1354386863503544320</t>
   </si>
 </sst>
 </file>
@@ -518,7 +1276,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,13 +1301,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -557,13 +1315,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -571,13 +1329,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -585,13 +1343,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -599,13 +1357,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -613,13 +1371,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -627,125 +1385,1315 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="C16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" t="s">
+        <v>106</v>
+      </c>
+      <c r="D28" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
         <v>29</v>
       </c>
-      <c r="D16" t="s">
+      <c r="B31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" t="s">
+        <v>109</v>
+      </c>
+      <c r="D31" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" t="s">
+        <v>110</v>
+      </c>
+      <c r="D32" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" t="s">
+        <v>111</v>
+      </c>
+      <c r="D33" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" t="s">
+        <v>113</v>
+      </c>
+      <c r="D35" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" t="s">
+        <v>114</v>
+      </c>
+      <c r="D36" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" t="s">
+        <v>115</v>
+      </c>
+      <c r="D37" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" t="s">
+        <v>116</v>
+      </c>
+      <c r="D38" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" t="s">
+        <v>117</v>
+      </c>
+      <c r="D39" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" t="s">
+        <v>118</v>
+      </c>
+      <c r="D40" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" t="s">
+        <v>119</v>
+      </c>
+      <c r="D41" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" t="s">
+        <v>120</v>
+      </c>
+      <c r="D42" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" t="s">
+        <v>121</v>
+      </c>
+      <c r="D43" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44" t="s">
+        <v>122</v>
+      </c>
+      <c r="D44" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45" t="s">
+        <v>123</v>
+      </c>
+      <c r="D45" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" t="s">
+        <v>77</v>
+      </c>
+      <c r="C46" t="s">
+        <v>124</v>
+      </c>
+      <c r="D46" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" t="s">
+        <v>77</v>
+      </c>
+      <c r="C47" t="s">
+        <v>125</v>
+      </c>
+      <c r="D47" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
         <v>44</v>
+      </c>
+      <c r="B48" t="s">
+        <v>79</v>
+      </c>
+      <c r="C48" t="s">
+        <v>126</v>
+      </c>
+      <c r="D48" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" t="s">
+        <v>78</v>
+      </c>
+      <c r="C49" t="s">
+        <v>127</v>
+      </c>
+      <c r="D49" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" t="s">
+        <v>79</v>
+      </c>
+      <c r="C50" t="s">
+        <v>128</v>
+      </c>
+      <c r="D50" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" t="s">
+        <v>79</v>
+      </c>
+      <c r="C51" t="s">
+        <v>129</v>
+      </c>
+      <c r="D51" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>46</v>
+      </c>
+      <c r="B52" t="s">
+        <v>79</v>
+      </c>
+      <c r="C52" t="s">
+        <v>130</v>
+      </c>
+      <c r="D52" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" t="s">
+        <v>79</v>
+      </c>
+      <c r="C53" t="s">
+        <v>131</v>
+      </c>
+      <c r="D53" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>47</v>
+      </c>
+      <c r="B54" t="s">
+        <v>78</v>
+      </c>
+      <c r="C54" t="s">
+        <v>132</v>
+      </c>
+      <c r="D54" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>42</v>
+      </c>
+      <c r="B55" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55" t="s">
+        <v>133</v>
+      </c>
+      <c r="D55" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>48</v>
+      </c>
+      <c r="B56" t="s">
+        <v>77</v>
+      </c>
+      <c r="C56" t="s">
+        <v>134</v>
+      </c>
+      <c r="D56" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>49</v>
+      </c>
+      <c r="B57" t="s">
+        <v>77</v>
+      </c>
+      <c r="C57" t="s">
+        <v>135</v>
+      </c>
+      <c r="D57" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>45</v>
+      </c>
+      <c r="B58" t="s">
+        <v>78</v>
+      </c>
+      <c r="C58" t="s">
+        <v>136</v>
+      </c>
+      <c r="D58" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>50</v>
+      </c>
+      <c r="B59" t="s">
+        <v>77</v>
+      </c>
+      <c r="C59" t="s">
+        <v>137</v>
+      </c>
+      <c r="D59" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>51</v>
+      </c>
+      <c r="B60" t="s">
+        <v>77</v>
+      </c>
+      <c r="C60" t="s">
+        <v>138</v>
+      </c>
+      <c r="D60" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>52</v>
+      </c>
+      <c r="B61" t="s">
+        <v>77</v>
+      </c>
+      <c r="C61" t="s">
+        <v>139</v>
+      </c>
+      <c r="D61" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" t="s">
+        <v>77</v>
+      </c>
+      <c r="C62" t="s">
+        <v>140</v>
+      </c>
+      <c r="D62" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>53</v>
+      </c>
+      <c r="B63" t="s">
+        <v>77</v>
+      </c>
+      <c r="C63" t="s">
+        <v>141</v>
+      </c>
+      <c r="D63" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>54</v>
+      </c>
+      <c r="B64" t="s">
+        <v>78</v>
+      </c>
+      <c r="C64" t="s">
+        <v>142</v>
+      </c>
+      <c r="D64" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>55</v>
+      </c>
+      <c r="B65" t="s">
+        <v>77</v>
+      </c>
+      <c r="C65" t="s">
+        <v>143</v>
+      </c>
+      <c r="D65" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>56</v>
+      </c>
+      <c r="B66" t="s">
+        <v>77</v>
+      </c>
+      <c r="C66" t="s">
+        <v>144</v>
+      </c>
+      <c r="D66" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>28</v>
+      </c>
+      <c r="B67" t="s">
+        <v>77</v>
+      </c>
+      <c r="C67" t="s">
+        <v>145</v>
+      </c>
+      <c r="D67" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>57</v>
+      </c>
+      <c r="B68" t="s">
+        <v>78</v>
+      </c>
+      <c r="C68" t="s">
+        <v>146</v>
+      </c>
+      <c r="D68" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>58</v>
+      </c>
+      <c r="B69" t="s">
+        <v>77</v>
+      </c>
+      <c r="C69" t="s">
+        <v>147</v>
+      </c>
+      <c r="D69" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>59</v>
+      </c>
+      <c r="B70" t="s">
+        <v>77</v>
+      </c>
+      <c r="C70" t="s">
+        <v>148</v>
+      </c>
+      <c r="D70" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>60</v>
+      </c>
+      <c r="B71" t="s">
+        <v>78</v>
+      </c>
+      <c r="C71" t="s">
+        <v>149</v>
+      </c>
+      <c r="D71" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>61</v>
+      </c>
+      <c r="B72" t="s">
+        <v>77</v>
+      </c>
+      <c r="C72" t="s">
+        <v>150</v>
+      </c>
+      <c r="D72" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>62</v>
+      </c>
+      <c r="B73" t="s">
+        <v>79</v>
+      </c>
+      <c r="C73" t="s">
+        <v>151</v>
+      </c>
+      <c r="D73" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>63</v>
+      </c>
+      <c r="B74" t="s">
+        <v>77</v>
+      </c>
+      <c r="C74" t="s">
+        <v>152</v>
+      </c>
+      <c r="D74" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>64</v>
+      </c>
+      <c r="B75" t="s">
+        <v>78</v>
+      </c>
+      <c r="C75" t="s">
+        <v>153</v>
+      </c>
+      <c r="D75" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>65</v>
+      </c>
+      <c r="B76" t="s">
+        <v>78</v>
+      </c>
+      <c r="C76" t="s">
+        <v>154</v>
+      </c>
+      <c r="D76" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>66</v>
+      </c>
+      <c r="B77" t="s">
+        <v>77</v>
+      </c>
+      <c r="C77" t="s">
+        <v>155</v>
+      </c>
+      <c r="D77" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>54</v>
+      </c>
+      <c r="B78" t="s">
+        <v>78</v>
+      </c>
+      <c r="C78" t="s">
+        <v>156</v>
+      </c>
+      <c r="D78" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" t="s">
+        <v>79</v>
+      </c>
+      <c r="C79" t="s">
+        <v>157</v>
+      </c>
+      <c r="D79" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>67</v>
+      </c>
+      <c r="B80" t="s">
+        <v>79</v>
+      </c>
+      <c r="C80" t="s">
+        <v>158</v>
+      </c>
+      <c r="D80" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>34</v>
+      </c>
+      <c r="B81" t="s">
+        <v>77</v>
+      </c>
+      <c r="C81" t="s">
+        <v>159</v>
+      </c>
+      <c r="D81" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>68</v>
+      </c>
+      <c r="B82" t="s">
+        <v>77</v>
+      </c>
+      <c r="C82" t="s">
+        <v>160</v>
+      </c>
+      <c r="D82" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>28</v>
+      </c>
+      <c r="B83" t="s">
+        <v>77</v>
+      </c>
+      <c r="C83" t="s">
+        <v>161</v>
+      </c>
+      <c r="D83" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>69</v>
+      </c>
+      <c r="B84" t="s">
+        <v>79</v>
+      </c>
+      <c r="C84" t="s">
+        <v>162</v>
+      </c>
+      <c r="D84" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>54</v>
+      </c>
+      <c r="B85" t="s">
+        <v>78</v>
+      </c>
+      <c r="C85" t="s">
+        <v>163</v>
+      </c>
+      <c r="D85" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>70</v>
+      </c>
+      <c r="B86" t="s">
+        <v>77</v>
+      </c>
+      <c r="C86" t="s">
+        <v>164</v>
+      </c>
+      <c r="D86" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>34</v>
+      </c>
+      <c r="B87" t="s">
+        <v>77</v>
+      </c>
+      <c r="C87" t="s">
+        <v>165</v>
+      </c>
+      <c r="D87" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>28</v>
+      </c>
+      <c r="B88" t="s">
+        <v>77</v>
+      </c>
+      <c r="C88" t="s">
+        <v>165</v>
+      </c>
+      <c r="D88" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89" t="s">
+        <v>79</v>
+      </c>
+      <c r="C89" t="s">
+        <v>166</v>
+      </c>
+      <c r="D89" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" t="s">
+        <v>79</v>
+      </c>
+      <c r="C90" t="s">
+        <v>167</v>
+      </c>
+      <c r="D90" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>71</v>
+      </c>
+      <c r="B91" t="s">
+        <v>79</v>
+      </c>
+      <c r="C91" t="s">
+        <v>168</v>
+      </c>
+      <c r="D91" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>54</v>
+      </c>
+      <c r="B92" t="s">
+        <v>78</v>
+      </c>
+      <c r="C92" t="s">
+        <v>169</v>
+      </c>
+      <c r="D92" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>54</v>
+      </c>
+      <c r="B93" t="s">
+        <v>78</v>
+      </c>
+      <c r="C93" t="s">
+        <v>170</v>
+      </c>
+      <c r="D93" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>72</v>
+      </c>
+      <c r="B94" t="s">
+        <v>77</v>
+      </c>
+      <c r="C94" t="s">
+        <v>171</v>
+      </c>
+      <c r="D94" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>72</v>
+      </c>
+      <c r="B95" t="s">
+        <v>77</v>
+      </c>
+      <c r="C95" t="s">
+        <v>172</v>
+      </c>
+      <c r="D95" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" t="s">
+        <v>79</v>
+      </c>
+      <c r="C96" t="s">
+        <v>173</v>
+      </c>
+      <c r="D96" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>69</v>
+      </c>
+      <c r="B97" t="s">
+        <v>79</v>
+      </c>
+      <c r="C97" t="s">
+        <v>174</v>
+      </c>
+      <c r="D97" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>73</v>
+      </c>
+      <c r="B98" t="s">
+        <v>77</v>
+      </c>
+      <c r="C98" t="s">
+        <v>175</v>
+      </c>
+      <c r="D98" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>74</v>
+      </c>
+      <c r="B99" t="s">
+        <v>79</v>
+      </c>
+      <c r="C99" t="s">
+        <v>176</v>
+      </c>
+      <c r="D99" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>75</v>
+      </c>
+      <c r="B100" t="s">
+        <v>78</v>
+      </c>
+      <c r="C100" t="s">
+        <v>177</v>
+      </c>
+      <c r="D100" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>76</v>
+      </c>
+      <c r="B101" t="s">
+        <v>79</v>
+      </c>
+      <c r="C101" t="s">
+        <v>178</v>
+      </c>
+      <c r="D101" t="s">
+        <v>278</v>
       </c>
     </row>
   </sheetData>
